--- a/DMSNewVSale_2025-10-25_10-29.xlsx
+++ b/DMSNewVSale_2025-10-25_10-29.xlsx
@@ -126,6 +126,15 @@
   </si>
   <si>
     <t>78.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
   </si>
   <si>
     <t xml:space="preserve">ترمومتر  زيئبق </t>
@@ -1052,21 +1061,21 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>11</v>
@@ -1099,7 +1108,7 @@
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>11</v>
@@ -1111,14 +1120,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1135,7 +1144,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1144,7 +1153,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1161,51 +1170,84 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>52</v>
       </c>
-      <c t="s" r="Q17" s="12">
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>53</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>17</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>18</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>54</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>11</v>
       </c>
     </row>
-    <row r="18" ht="25.5" customHeight="1">
-      <c r="N18" s="13">
-        <v>627.60000000000002</v>
-      </c>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
-        <v>53</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
-        <v>54</v>
-      </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
-        <v>55</v>
-      </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+    <row r="19" ht="26.25" customHeight="1">
+      <c r="N19" s="13">
+        <v>651.60000000000002</v>
+      </c>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>56</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>57</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>58</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1269,10 +1311,15 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
